--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChangeConfig\Benchmark\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BD4E4-779B-40D6-AE54-479075484F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,8 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,25 +108,148 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +268,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,15 +451,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,26 +703,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -434,17 +1022,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
@@ -453,7 +1043,7 @@
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +1079,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -536,8 +1126,8 @@
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>PropertyCompare</t>
+  </si>
+  <si>
+    <t>属性比较</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>GamePropertyType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -1028,18 +1049,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,6 +1142,37 @@
       </c>
       <c r="M3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="str">
+        <f>B4</f>
+        <v>Condition</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>随机范围</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -1049,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
@@ -1175,6 +1190,28 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1067,13 +1067,14 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="6" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.125" customWidth="1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="22095" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>EquipmentHoles</t>
+  </si>
+  <si>
+    <t>宝石孔属性</t>
+  </si>
+  <si>
+    <t>HoleColor</t>
+  </si>
+  <si>
+    <t>GemColor</t>
+  </si>
+  <si>
+    <t>PropertyPack</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1213,6 +1228,28 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>PropertyPack</t>
+  </si>
+  <si>
+    <t>BuildingProduce</t>
+  </si>
+  <si>
+    <t>建筑产出</t>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
+    <t>CurrencyValue</t>
+  </si>
+  <si>
+    <t>BuildingUpgrade</t>
+  </si>
+  <si>
+    <t>建筑升级</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1250,6 +1268,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>建筑升级</t>
+  </si>
+  <si>
+    <t>DropItem</t>
+  </si>
+  <si>
+    <t>掉落信息</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>ItemAmount</t>
+  </si>
+  <si>
+    <t>ItemRate</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1312,6 +1327,36 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -107,6 +107,18 @@
     <t>int</t>
   </si>
   <si>
+    <t>CurrencyCompare</t>
+  </si>
+  <si>
+    <t>货币比较</t>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>MinMax</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>Min</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -141,9 +150,6 @@
   </si>
   <si>
     <t>建筑产出</t>
-  </si>
-  <si>
-    <t>CurrencyType</t>
   </si>
   <si>
     <t>CurrencyValue</t>
@@ -1112,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1243,6 +1249,10 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
+      <c r="C8" t="str">
+        <f>B4</f>
+        <v>Condition</v>
+      </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -1250,12 +1260,12 @@
         <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="10:11">
       <c r="J9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
@@ -1263,67 +1273,67 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="10:11">
       <c r="J12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="K14" t="s">
         <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="10:11">
       <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" t="s">
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" t="s">
         <v>41</v>
       </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
       <c r="K18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1335,25 +1345,47 @@
         <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="10:11">
-      <c r="J23" t="s">
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18705" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1120,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8910"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,10 +533,90 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -665,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,34 +757,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,15 +869,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1163,13 +1291,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1220,174 +1348,355 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="3" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="10:11">
-      <c r="J6" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="3" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="10:11">
-      <c r="J9" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="10:11">
-      <c r="J12" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J14" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="10:11">
-      <c r="J15" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J17" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="10:11">
-      <c r="J22" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J24" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="10:11">
+    <row r="25" spans="2:11">
+      <c r="B25" s="6"/>
       <c r="J25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="10:11">
-      <c r="J26" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="15" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1251,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -183,6 +183,90 @@
   </si>
   <si>
     <t>ItemRate</t>
+  </si>
+  <si>
+    <t>SkillTargetRangeParams</t>
+  </si>
+  <si>
+    <t>技能选择目标参数</t>
+  </si>
+  <si>
+    <t>SkillTargetSingle</t>
+  </si>
+  <si>
+    <t>单体技能</t>
+  </si>
+  <si>
+    <t>SkillTargetCycle</t>
+  </si>
+  <si>
+    <t>自身圆形范围</t>
+  </si>
+  <si>
+    <t>IncludeSelf</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>SkillTargetRect</t>
+  </si>
+  <si>
+    <t>自身前方矩形范围</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>BuffParams</t>
+  </si>
+  <si>
+    <t>Buff参数</t>
+  </si>
+  <si>
+    <t>BuffModifyPropertyParams</t>
+  </si>
+  <si>
+    <t>Buff修改属性参数</t>
+  </si>
+  <si>
+    <t>BuffControlParams</t>
+  </si>
+  <si>
+    <t>Buff控制参数</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>BuffControlType</t>
+  </si>
+  <si>
+    <t>BuffDotParams</t>
+  </si>
+  <si>
+    <t>BuffDot参数</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>BuffActionParams</t>
+  </si>
+  <si>
+    <t>Buff行为参数</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>BuffActionType</t>
   </si>
 </sst>
 </file>
@@ -1249,15 +1333,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
@@ -1632,11 +1718,15 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1656,11 +1746,17 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1680,16 +1776,26 @@
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="7"/>
@@ -1700,8 +1806,12 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="7"/>
@@ -1715,6 +1825,115 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>BuffActionType</t>
+  </si>
+  <si>
+    <t>MonsterCreationInfo</t>
+  </si>
+  <si>
+    <t>怪物创建信息</t>
+  </si>
+  <si>
+    <t>MonsterConfig</t>
+  </si>
+  <si>
+    <t>int#ref=UnitConfigCategory</t>
+  </si>
+  <si>
+    <t>MonsterCount</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1348,7 +1363,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1934,6 +1949,28 @@
         <v>79</v>
       </c>
     </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -185,19 +185,19 @@
     <t>ItemRate</t>
   </si>
   <si>
-    <t>SkillTargetRangeParams</t>
+    <t>CastSelectTargetsParams</t>
   </si>
   <si>
     <t>技能选择目标参数</t>
   </si>
   <si>
-    <t>SkillTargetSingle</t>
+    <t>CastSingle</t>
   </si>
   <si>
     <t>单体技能</t>
   </si>
   <si>
-    <t>SkillTargetCycle</t>
+    <t>CastTargetCycle</t>
   </si>
   <si>
     <t>自身圆形范围</t>
@@ -212,7 +212,10 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>SkillTargetRect</t>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>CastForwardRect</t>
   </si>
   <si>
     <t>自身前方矩形范围</t>
@@ -224,51 +227,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>BuffParams</t>
-  </si>
-  <si>
-    <t>Buff参数</t>
-  </si>
-  <si>
-    <t>BuffModifyPropertyParams</t>
-  </si>
-  <si>
-    <t>Buff修改属性参数</t>
-  </si>
-  <si>
-    <t>BuffControlParams</t>
-  </si>
-  <si>
-    <t>Buff控制参数</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>BuffControlType</t>
-  </si>
-  <si>
-    <t>BuffDotParams</t>
-  </si>
-  <si>
-    <t>BuffDot参数</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>BuffActionParams</t>
-  </si>
-  <si>
-    <t>Buff行为参数</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>BuffActionType</t>
-  </si>
-  <si>
     <t>MonsterCreationInfo</t>
   </si>
   <si>
@@ -282,6 +240,90 @@
   </si>
   <si>
     <t>MonsterCount</t>
+  </si>
+  <si>
+    <t>CastHitInfo</t>
+  </si>
+  <si>
+    <t>技能命中信息</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HitSelf</t>
+  </si>
+  <si>
+    <t>HitAction</t>
+  </si>
+  <si>
+    <t>int#ref=ActionConfigCategory</t>
+  </si>
+  <si>
+    <t>TargetBuff</t>
+  </si>
+  <si>
+    <t>SelfBuff</t>
+  </si>
+  <si>
+    <t>BuffTriggerInfo</t>
+  </si>
+  <si>
+    <t>Buff触发信息</t>
+  </si>
+  <si>
+    <t>AddAction</t>
+  </si>
+  <si>
+    <t>TickAction</t>
+  </si>
+  <si>
+    <t>RemoveAction</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>属性信息</t>
+  </si>
+  <si>
+    <t>ActionParam</t>
+  </si>
+  <si>
+    <t>行为参数</t>
+  </si>
+  <si>
+    <t>ModifyPropertyActionParams</t>
+  </si>
+  <si>
+    <t>修改属性行为</t>
+  </si>
+  <si>
+    <t>ModifyProperties</t>
+  </si>
+  <si>
+    <t>list,Properties</t>
+  </si>
+  <si>
+    <t>DamageActionParams</t>
+  </si>
+  <si>
+    <t>伤害行为</t>
+  </si>
+  <si>
+    <t>AdditionalDamage</t>
+  </si>
+  <si>
+    <t>BulletShape</t>
+  </si>
+  <si>
+    <t>子弹形状</t>
+  </si>
+  <si>
+    <t>BulletCycleShape</t>
+  </si>
+  <si>
+    <t>球形子弹</t>
   </si>
 </sst>
 </file>
@@ -1348,22 +1390,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,27 +1879,35 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="F36" t="s">
         <v>63</v>
       </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
       <c r="J36" t="s">
         <v>64</v>
       </c>
@@ -1865,109 +1915,206 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="37" spans="10:11">
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="J40" t="s">
         <v>68</v>
       </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="10:11">
-      <c r="J43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" t="s">
+      <c r="K40" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" t="s">
         <v>70</v>
       </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
       <c r="J45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
       <c r="J47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
-      <c r="B49" t="s">
+    <row r="48" spans="10:11">
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s">
-        <v>81</v>
-      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+      <c r="K52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
       <c r="J53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11">
-      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="K54" t="s">
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -185,19 +185,19 @@
     <t>ItemRate</t>
   </si>
   <si>
-    <t>CastSelectTargetsParams</t>
+    <t>SelectTargetsParams</t>
   </si>
   <si>
     <t>技能选择目标参数</t>
   </si>
   <si>
-    <t>CastSingle</t>
+    <t>Single</t>
   </si>
   <si>
     <t>单体技能</t>
   </si>
   <si>
-    <t>CastTargetCycle</t>
+    <t>Cycle</t>
   </si>
   <si>
     <t>自身圆形范围</t>
@@ -215,7 +215,7 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>CastForwardRect</t>
+    <t>ForwardRect</t>
   </si>
   <si>
     <t>自身前方矩形范围</t>
@@ -314,16 +314,58 @@
     <t>AdditionalDamage</t>
   </si>
   <si>
-    <t>BulletShape</t>
-  </si>
-  <si>
-    <t>子弹形状</t>
-  </si>
-  <si>
-    <t>BulletCycleShape</t>
-  </si>
-  <si>
-    <t>球形子弹</t>
+    <t>SubcastParams</t>
+  </si>
+  <si>
+    <t>释放子技能行为</t>
+  </si>
+  <si>
+    <t>SubCastConfigId</t>
+  </si>
+  <si>
+    <t>int#ref=CastConfigCategory</t>
+  </si>
+  <si>
+    <t>MoveToTargetParams</t>
+  </si>
+  <si>
+    <t>移动到目标行为</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>AttractParams</t>
+  </si>
+  <si>
+    <t>吸引行为</t>
+  </si>
+  <si>
+    <t>AttractRange</t>
+  </si>
+  <si>
+    <t>AttractSpeed</t>
+  </si>
+  <si>
+    <t>HitFlyParams</t>
+  </si>
+  <si>
+    <t>击飞行为</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>BuffConfigId</t>
+  </si>
+  <si>
+    <t>int#ref=BuffConfigCategory</t>
   </si>
 </sst>
 </file>
@@ -336,7 +378,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +399,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -889,52 +937,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,83 +991,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1390,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2093,29 +2144,103 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="65" ht="16.5" spans="2:11">
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="2:11">
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+      <c r="K67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="6:6">
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" ht="16.5" spans="2:11">
       <c r="B69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" t="s">
-        <v>98</v>
-      </c>
-      <c r="J71" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+      <c r="K69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="6:11">
+      <c r="F70" s="17"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="6:6">
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="19815" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t>int#ref=BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>AIInfo</t>
+  </si>
+  <si>
+    <t>AI信息</t>
+  </si>
+  <si>
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AIType</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,9 +1105,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
@@ -1105,18 +1117,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1441,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1488,13 +1488,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1563,7 +1563,7 @@
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       <c r="J11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="J15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       <c r="J17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1726,25 +1726,25 @@
       <c r="J18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="J19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="J20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1757,10 +1757,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1773,10 +1773,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="J24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       <c r="J25" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="J26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       <c r="C65" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J65" t="s">
@@ -2168,7 +2168,7 @@
       <c r="C67" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="12" t="s">
         <v>100</v>
       </c>
       <c r="J67" t="s">
@@ -2179,7 +2179,7 @@
       </c>
     </row>
     <row r="68" ht="16.5" spans="6:6">
-      <c r="F68" s="17"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" ht="16.5" spans="2:11">
       <c r="B69" t="s">
@@ -2188,7 +2188,7 @@
       <c r="C69" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="12" t="s">
         <v>104</v>
       </c>
       <c r="J69" t="s">
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="70" ht="16.5" spans="6:11">
-      <c r="F70" s="17"/>
+      <c r="F70" s="12"/>
       <c r="J70" t="s">
         <v>106</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="71" ht="16.5" spans="6:6">
-      <c r="F71" s="17"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" t="s">
@@ -2241,6 +2241,28 @@
       </c>
       <c r="K74" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>114</v>
+      </c>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>AIType</t>
+  </si>
+  <si>
+    <t>AIParams</t>
+  </si>
+  <si>
+    <t>AI行为参数</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2265,6 +2274,22 @@
         <v>117</v>
       </c>
     </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="126">
   <si>
     <t>##var</t>
   </si>
@@ -194,13 +194,13 @@
     <t>Single</t>
   </si>
   <si>
-    <t>单体技能</t>
+    <t>单体选择参数</t>
   </si>
   <si>
     <t>Cycle</t>
   </si>
   <si>
-    <t>自身圆形范围</t>
+    <t>自身圆形选择参数</t>
   </si>
   <si>
     <t>IncludeSelf</t>
@@ -218,7 +218,7 @@
     <t>ForwardRect</t>
   </si>
   <si>
-    <t>自身前方矩形范围</t>
+    <t>自身前方矩形选择参数</t>
   </si>
   <si>
     <t>Width</t>
@@ -227,6 +227,15 @@
     <t>Height</t>
   </si>
   <si>
+    <t>SelectCycle</t>
+  </si>
+  <si>
+    <t>指定圆形选择参数</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
     <t>MonsterCreationInfo</t>
   </si>
   <si>
@@ -366,6 +375,12 @@
   </si>
   <si>
     <t>int#ref=BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>TrapParams</t>
+  </si>
+  <si>
+    <t>陷阱行为</t>
   </si>
   <si>
     <t>AIInfo</t>
@@ -1450,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1462,7 +1477,7 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
     <col min="11" max="11" width="26.875" customWidth="1"/>
@@ -1995,272 +2010,291 @@
       <c r="B40" t="s">
         <v>66</v>
       </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
       <c r="F40" t="s">
         <v>67</v>
       </c>
-      <c r="J40" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" t="s">
-        <v>69</v>
+      <c r="J40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="10:11">
       <c r="J41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
-      <c r="B44" t="s">
+    <row r="42" spans="10:11">
+      <c r="J42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
         <v>71</v>
       </c>
-      <c r="F44" t="s">
+      <c r="K45" t="s">
         <v>72</v>
-      </c>
-      <c r="J44" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="10:11">
-      <c r="J45" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="10:11">
       <c r="J46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s">
         <v>75</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="10:11">
-      <c r="J47" t="s">
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" t="s">
         <v>77</v>
       </c>
-      <c r="K47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="10:11">
-      <c r="J48" t="s">
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" t="s">
         <v>78</v>
       </c>
-      <c r="K48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" t="s">
+      <c r="K51" t="s">
         <v>79</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="52" spans="10:11">
       <c r="J52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="10:11">
       <c r="J53" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" t="s">
         <v>83</v>
       </c>
-      <c r="K53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" t="s">
+      <c r="J56" t="s">
         <v>84</v>
       </c>
-      <c r="F55" t="s">
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" t="s">
         <v>85</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
         <v>22</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="10:11">
-      <c r="J56" t="s">
+    <row r="61" spans="10:11">
+      <c r="J61" t="s">
         <v>24</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" t="s">
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
         <v>89</v>
       </c>
-      <c r="J61" t="s">
+      <c r="F64" t="s">
         <v>90</v>
       </c>
-      <c r="K61" t="s">
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" t="s">
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
         <v>92</v>
       </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="J66" t="s">
         <v>93</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K66" t="s">
         <v>94</v>
       </c>
-      <c r="K63" t="s">
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+      <c r="K68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="2:11">
-      <c r="B65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K65" t="s">
+    <row r="70" ht="16.5" spans="2:11">
+      <c r="B70" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" ht="16.5" spans="2:11">
-      <c r="B67" t="s">
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="12" t="s">
+      <c r="J70" t="s">
         <v>100</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K70" t="s">
         <v>101</v>
       </c>
-      <c r="K67" t="s">
+    </row>
+    <row r="72" ht="16.5" spans="2:11">
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" ht="16.5" spans="6:6">
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" ht="16.5" spans="2:11">
-      <c r="B69" t="s">
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="12" t="s">
+      <c r="J72" t="s">
         <v>104</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K72" t="s">
         <v>105</v>
       </c>
-      <c r="K69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" spans="6:11">
-      <c r="F70" s="12"/>
-      <c r="J70" t="s">
+    </row>
+    <row r="73" ht="16.5" spans="6:6">
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" ht="16.5" spans="2:11">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="K70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" spans="6:6">
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" t="s">
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="J74" t="s">
         <v>108</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="6:11">
+      <c r="F75" s="12"/>
+      <c r="J75" t="s">
         <v>109</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="6:6">
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="10:11">
-      <c r="J73" t="s">
-        <v>110</v>
-      </c>
-      <c r="K73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="10:11">
-      <c r="J74" t="s">
-        <v>111</v>
-      </c>
-      <c r="K74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" t="s">
+    <row r="78" spans="10:11">
+      <c r="J78" t="s">
         <v>113</v>
-      </c>
-      <c r="F78" t="s">
-        <v>114</v>
-      </c>
-      <c r="J78" t="s">
-        <v>115</v>
       </c>
       <c r="K78" t="s">
         <v>25</v>
@@ -2268,26 +2302,73 @@
     </row>
     <row r="79" spans="10:11">
       <c r="J79" t="s">
+        <v>114</v>
+      </c>
+      <c r="K79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" t="s">
         <v>116</v>
       </c>
-      <c r="K79" t="s">
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F84" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
+      <c r="J84" t="s">
         <v>120</v>
       </c>
-      <c r="C83" t="s">
-        <v>118</v>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+      <c r="K85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>AI行为参数</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2363,14 +2360,6 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t>##var</t>
   </si>
@@ -197,18 +197,18 @@
     <t>单体选择参数</t>
   </si>
   <si>
+    <t>IncludeSelf</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>Cycle</t>
   </si>
   <si>
     <t>自身圆形选择参数</t>
   </si>
   <si>
-    <t>IncludeSelf</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>Radius</t>
   </si>
   <si>
@@ -383,6 +383,39 @@
     <t>陷阱行为</t>
   </si>
   <si>
+    <t>TreatmentParams</t>
+  </si>
+  <si>
+    <t>治疗行为</t>
+  </si>
+  <si>
+    <t>TreatValue</t>
+  </si>
+  <si>
+    <t>ReliveParams</t>
+  </si>
+  <si>
+    <t>复活行为</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>DisperseParams</t>
+  </si>
+  <si>
+    <t>驱散行为</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
     <t>AIInfo</t>
   </si>
   <si>
@@ -390,9 +423,6 @@
   </si>
   <si>
     <t>NodeId</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>AIType</t>
@@ -1462,10 +1492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1889,8 +1919,12 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="7"/>
@@ -1906,7 +1940,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>52</v>
@@ -1914,16 +1948,16 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -2014,10 +2048,10 @@
         <v>67</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="10:11">
@@ -2085,7 +2119,7 @@
         <v>77</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="10:11">
@@ -2334,6 +2368,9 @@
       <c r="B84" t="s">
         <v>118</v>
       </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
       <c r="F84" t="s">
         <v>119</v>
       </c>
@@ -2344,20 +2381,84 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="10:11">
-      <c r="J85" t="s">
+    <row r="86" spans="2:11">
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="K85" t="s">
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" t="s">
+      <c r="J86" t="s">
         <v>123</v>
       </c>
-      <c r="F87" t="s">
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11">
+      <c r="J87" t="s">
         <v>124</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" t="s">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11">
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>130</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11">
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+      <c r="K94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
   <si>
     <t>##var</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>BuffProperty</t>
   </si>
   <si>
     <t>Count</t>
@@ -1494,7 +1497,7 @@
   <sheetPr/>
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
       <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
@@ -2416,30 +2419,38 @@
       <c r="F89" t="s">
         <v>126</v>
       </c>
-      <c r="J89" t="s">
-        <v>127</v>
-      </c>
-      <c r="K89" t="s">
-        <v>25</v>
+      <c r="J89" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="10:11">
       <c r="J90" t="s">
+        <v>127</v>
+      </c>
+      <c r="K90" t="s">
         <v>128</v>
       </c>
-      <c r="K90" t="s">
+    </row>
+    <row r="91" spans="10:11">
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+      <c r="K91" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
         <v>25</v>
@@ -2450,15 +2461,15 @@
         <v>127</v>
       </c>
       <c r="K94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +227,15 @@
     <t>Height</t>
   </si>
   <si>
+    <t>ForwardSector180</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形参数</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
     <t>SelectCycle</t>
   </si>
   <si>
@@ -414,9 +423,6 @@
   </si>
   <si>
     <t>BuffProperty</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>AIInfo</t>
@@ -1495,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2051,65 +2057,76 @@
         <v>67</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="10:11">
-      <c r="J41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="7" t="s">
+    <row r="44" spans="10:11">
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="10:11">
-      <c r="J43" s="7" t="s">
+      <c r="K45" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="K46" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="10:11">
-      <c r="J46" t="s">
+      <c r="F48" t="s">
         <v>73</v>
       </c>
-      <c r="K46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" t="s">
+      <c r="J48" t="s">
         <v>74</v>
       </c>
-      <c r="F49" t="s">
+      <c r="K48" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="49" spans="10:11">
       <c r="J49" t="s">
         <v>76</v>
       </c>
@@ -2117,25 +2134,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="10:11">
-      <c r="J50" t="s">
+    <row r="52" spans="2:11">
+      <c r="B52" t="s">
         <v>77</v>
       </c>
-      <c r="K50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="10:11">
-      <c r="J51" t="s">
+      <c r="F52" t="s">
         <v>78</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J52" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="10:11">
-      <c r="J52" t="s">
-        <v>80</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -2143,217 +2150,216 @@
     </row>
     <row r="53" spans="10:11">
       <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" t="s">
         <v>81</v>
       </c>
-      <c r="K53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" t="s">
+      <c r="K54" t="s">
         <v>82</v>
       </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" t="s">
         <v>83</v>
       </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
       <c r="J56" t="s">
         <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="10:11">
-      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="K57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="10:11">
-      <c r="J58" t="s">
+      <c r="F59" t="s">
         <v>86</v>
       </c>
-      <c r="K58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" t="s">
+      <c r="J59" t="s">
         <v>87</v>
       </c>
-      <c r="F60" t="s">
+      <c r="K59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60" t="s">
         <v>88</v>
       </c>
-      <c r="J60" t="s">
-        <v>22</v>
-      </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="10:11">
       <c r="J61" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" t="s">
         <v>24</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
         <v>92</v>
       </c>
-      <c r="J66" t="s">
+      <c r="F67" t="s">
         <v>93</v>
       </c>
-      <c r="K66" t="s">
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
         <v>95</v>
       </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="J69" t="s">
         <v>96</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K69" t="s">
         <v>97</v>
       </c>
-      <c r="K68" t="s">
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="2:11">
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J70" t="s">
-        <v>100</v>
-      </c>
-      <c r="K70" t="s">
+    <row r="73" ht="16.5" spans="2:11">
+      <c r="B73" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="72" ht="16.5" spans="2:11">
-      <c r="B72" t="s">
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C72" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="12" t="s">
+      <c r="J73" t="s">
         <v>103</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K73" t="s">
         <v>104</v>
       </c>
-      <c r="K72" t="s">
+    </row>
+    <row r="75" ht="16.5" spans="2:11">
+      <c r="B75" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" ht="16.5" spans="6:6">
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" ht="16.5" spans="2:11">
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="12" t="s">
+      <c r="J75" t="s">
         <v>107</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K75" t="s">
         <v>108</v>
-      </c>
-      <c r="K74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" spans="6:11">
-      <c r="F75" s="12"/>
-      <c r="J75" t="s">
-        <v>109</v>
-      </c>
-      <c r="K75" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="6:6">
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" ht="16.5" spans="2:11">
       <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="J77" t="s">
         <v>111</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="6:11">
+      <c r="F78" s="12"/>
+      <c r="J78" t="s">
         <v>112</v>
       </c>
-      <c r="K77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="10:11">
-      <c r="J78" t="s">
+      <c r="K78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="6:6">
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="K78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="10:11">
-      <c r="J79" t="s">
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" t="s">
         <v>114</v>
       </c>
-      <c r="K79" t="s">
+      <c r="J80" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" t="s">
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" t="s">
         <v>116</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" t="s">
-        <v>117</v>
-      </c>
-      <c r="J81" t="s">
-        <v>112</v>
       </c>
       <c r="K81" t="s">
         <v>25</v>
@@ -2361,49 +2367,49 @@
     </row>
     <row r="82" spans="10:11">
       <c r="J82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" t="s">
+        <v>120</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85" t="s">
         <v>118</v>
       </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="F84" t="s">
-        <v>119</v>
-      </c>
-      <c r="J84" t="s">
-        <v>120</v>
-      </c>
-      <c r="K84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
         <v>121</v>
       </c>
-      <c r="C86" t="s">
-        <v>89</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" t="s">
         <v>122</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J87" t="s">
         <v>123</v>
-      </c>
-      <c r="K86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="10:11">
-      <c r="J87" t="s">
-        <v>124</v>
       </c>
       <c r="K87" t="s">
         <v>25</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" t="s">
         <v>125</v>
       </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="J89" t="s">
         <v>126</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>57</v>
+      <c r="K89" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="10:11">
@@ -2431,45 +2437,70 @@
         <v>127</v>
       </c>
       <c r="K90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="91" spans="10:11">
-      <c r="J91" t="s">
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" t="s">
         <v>129</v>
       </c>
-      <c r="K91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" t="s">
+      <c r="J92" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11">
+      <c r="J93" t="s">
         <v>130</v>
       </c>
-      <c r="F93" t="s">
+      <c r="K93" t="s">
         <v>131</v>
-      </c>
-      <c r="J93" t="s">
-        <v>132</v>
-      </c>
-      <c r="K93" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="J94" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="K94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" t="s">
+      <c r="J96" t="s">
         <v>134</v>
       </c>
-      <c r="F96" t="s">
+      <c r="K96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+      <c r="K97" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -278,12 +278,15 @@
     <t>int#ref=ActionConfigCategory</t>
   </si>
   <si>
+    <t>SelfBuff</t>
+  </si>
+  <si>
+    <t>int#ref=BuffConfigCategory</t>
+  </si>
+  <si>
     <t>TargetBuff</t>
   </si>
   <si>
-    <t>SelfBuff</t>
-  </si>
-  <si>
     <t>BuffTriggerInfo</t>
   </si>
   <si>
@@ -381,9 +384,6 @@
   </si>
   <si>
     <t>BuffConfigId</t>
-  </si>
-  <si>
-    <t>int#ref=BuffConfigCategory</t>
   </si>
   <si>
     <t>TrapParams</t>
@@ -1501,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2169,26 +2169,34 @@
         <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="10:11">
       <c r="J56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" t="s">
         <v>84</v>
       </c>
-      <c r="K56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" t="s">
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
         <v>86</v>
       </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s">
         <v>82</v>
@@ -2196,162 +2204,162 @@
     </row>
     <row r="60" spans="10:11">
       <c r="J60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="10:11">
-      <c r="J61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" t="s">
+    <row r="62" spans="2:11">
+      <c r="B62" t="s">
         <v>91</v>
       </c>
+      <c r="F62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
       <c r="J63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="10:11">
-      <c r="J64" t="s">
-        <v>24</v>
-      </c>
-      <c r="K64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
+      <c r="F66" t="s">
         <v>94</v>
       </c>
-      <c r="C69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" t="s">
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
         <v>95</v>
       </c>
-      <c r="J69" t="s">
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" t="s">
         <v>96</v>
       </c>
-      <c r="K69" t="s">
+      <c r="J68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" t="s">
+      <c r="K68" t="s">
         <v>98</v>
       </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" t="s">
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" t="s">
         <v>99</v>
       </c>
-      <c r="J71" t="s">
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" t="s">
         <v>100</v>
       </c>
-      <c r="K71" t="s">
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+      <c r="K70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="2:11">
-      <c r="B73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="12" t="s">
+    <row r="72" ht="16.5" spans="2:11">
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="J73" t="s">
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K73" t="s">
+      <c r="J72" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" ht="16.5" spans="2:11">
-      <c r="B75" t="s">
+      <c r="K72" t="s">
         <v>105</v>
       </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" s="12" t="s">
+    </row>
+    <row r="74" ht="16.5" spans="2:11">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="J75" t="s">
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K75" t="s">
+      <c r="J74" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" ht="16.5" spans="6:6">
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" ht="16.5" spans="2:11">
-      <c r="B77" t="s">
+      <c r="K74" t="s">
         <v>109</v>
       </c>
-      <c r="C77" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77" s="12" t="s">
+    </row>
+    <row r="75" ht="16.5" spans="6:6">
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" ht="16.5" spans="2:11">
+      <c r="B76" t="s">
         <v>110</v>
       </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+      <c r="K76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="6:11">
+      <c r="F77" s="12"/>
       <c r="J77" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="6:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="6:6">
       <c r="F78" s="12"/>
-      <c r="J78" t="s">
-        <v>112</v>
-      </c>
-      <c r="K78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="6:6">
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" t="s">
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" t="s">
         <v>114</v>
       </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
       <c r="J80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K80" t="s">
         <v>25</v>
@@ -2359,147 +2367,139 @@
     </row>
     <row r="81" spans="10:11">
       <c r="J81" t="s">
+        <v>118</v>
+      </c>
+      <c r="K81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" t="s">
+        <v>120</v>
+      </c>
+      <c r="J83" t="s">
         <v>116</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="10:11">
-      <c r="J82" t="s">
-        <v>117</v>
-      </c>
-      <c r="K82" t="s">
+    <row r="84" spans="10:11">
+      <c r="J84" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" t="s">
-        <v>120</v>
-      </c>
-      <c r="J84" t="s">
-        <v>115</v>
-      </c>
       <c r="K84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+      <c r="K86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="10:11">
-      <c r="J85" t="s">
-        <v>117</v>
-      </c>
-      <c r="K85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87" t="s">
-        <v>122</v>
-      </c>
-      <c r="J87" t="s">
-        <v>123</v>
-      </c>
-      <c r="K87" t="s">
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+      <c r="K88" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
-      <c r="B89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" t="s">
-        <v>92</v>
-      </c>
-      <c r="F89" t="s">
-        <v>125</v>
-      </c>
+    <row r="89" spans="10:11">
       <c r="J89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="10:11">
-      <c r="J90" t="s">
-        <v>127</v>
-      </c>
-      <c r="K90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" t="s">
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
         <v>128</v>
       </c>
-      <c r="C92" t="s">
-        <v>92</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" t="s">
         <v>129</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11">
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+      <c r="K92" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" t="s">
+        <v>68</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11">
+      <c r="J96" t="s">
         <v>130</v>
       </c>
-      <c r="K93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="10:11">
-      <c r="J94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" t="s">
-        <v>133</v>
-      </c>
-      <c r="J96" t="s">
-        <v>134</v>
-      </c>
       <c r="K96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="10:11">
-      <c r="J97" t="s">
-        <v>130</v>
-      </c>
-      <c r="K97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
-      <c r="B99" t="s">
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
         <v>136</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F98" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="25590" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
   <si>
     <t>##var</t>
   </si>
@@ -425,22 +425,34 @@
     <t>BuffProperty</t>
   </si>
   <si>
-    <t>AIInfo</t>
-  </si>
-  <si>
-    <t>AI信息</t>
-  </si>
-  <si>
-    <t>NodeId</t>
-  </si>
-  <si>
-    <t>AIType</t>
-  </si>
-  <si>
-    <t>AIParams</t>
+    <t>AIParam</t>
   </si>
   <si>
     <t>AI行为参数</t>
+  </si>
+  <si>
+    <t>AIPatrolParam</t>
+  </si>
+  <si>
+    <t>巡逻1</t>
+  </si>
+  <si>
+    <t>StayTimeMin</t>
+  </si>
+  <si>
+    <t>StayTimeMax</t>
+  </si>
+  <si>
+    <t>AICastParam</t>
+  </si>
+  <si>
+    <t>释放技能</t>
+  </si>
+  <si>
+    <t>CastConfigIds</t>
+  </si>
+  <si>
+    <t>list,int</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,21 +475,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -588,6 +598,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1060,126 +1084,144 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,1006 +1543,1030 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="26.875" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="5" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="5" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="6"/>
-      <c r="J19" s="7" t="s">
+      <c r="B19" s="9"/>
+      <c r="J19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="6"/>
-      <c r="J20" s="7" t="s">
+      <c r="B20" s="9"/>
+      <c r="J20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="6"/>
-      <c r="J25" t="s">
+      <c r="B25" s="9"/>
+      <c r="J25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" t="s">
+      <c r="J37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" t="s">
+      <c r="J38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:11">
-      <c r="J44" t="s">
+      <c r="J44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:11">
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:11">
-      <c r="J49" t="s">
+      <c r="J49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="10:11">
-      <c r="J53" t="s">
+      <c r="J53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="10:11">
-      <c r="J54" t="s">
+      <c r="J54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:11">
-      <c r="J55" t="s">
+      <c r="J55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" spans="10:11">
-      <c r="J56" t="s">
+      <c r="J56" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="10:11">
-      <c r="J59" t="s">
+      <c r="J59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:11">
-      <c r="J60" t="s">
+      <c r="J60" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="10:11">
-      <c r="J63" t="s">
+      <c r="J63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="2:11">
-      <c r="B72" t="s">
+    <row r="72" spans="2:11">
+      <c r="B72" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="2:11">
-      <c r="B74" t="s">
+    <row r="74" spans="2:11">
+      <c r="B74" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="6:6">
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" ht="16.5" spans="2:11">
-      <c r="B76" t="s">
+    <row r="75" spans="6:6">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="6:11">
-      <c r="F77" s="12"/>
-      <c r="J77" t="s">
+    <row r="77" spans="6:11">
+      <c r="F77" s="18"/>
+      <c r="J77" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="6:6">
-      <c r="F78" s="12"/>
+    <row r="78" spans="6:6">
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="10:11">
-      <c r="J80" t="s">
+      <c r="J80" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="10:11">
-      <c r="J81" t="s">
+      <c r="J81" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="10:11">
-      <c r="J84" t="s">
+      <c r="J84" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="10:11">
-      <c r="J89" t="s">
+      <c r="J89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K91" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="10:11">
-      <c r="J92" t="s">
+      <c r="J92" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="10:11">
-      <c r="J93" t="s">
+      <c r="J93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" t="s">
+      <c r="K93" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J95" t="s">
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="10:11">
-      <c r="J96" t="s">
-        <v>130</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="C97" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
+      <c r="J97" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F98" t="s">
+      <c r="K97" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98" s="3" t="s">
         <v>137</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>##var</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>BuffProperty</t>
+  </si>
+  <si>
+    <t>TauntParams</t>
+  </si>
+  <si>
+    <t>嘲讽行为</t>
+  </si>
+  <si>
+    <t>Hatred</t>
   </si>
   <si>
     <t>AIParam</t>
@@ -1166,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,18 +1185,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1198,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1206,13 +1206,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -1543,10 +1537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1570,1003 +1564,1020 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="15" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f>B4</f>
         <v>Condition</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="15" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="15" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="15" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="9"/>
-      <c r="J19" s="11" t="s">
+      <c r="B19" s="7"/>
+      <c r="J19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="9"/>
-      <c r="J20" s="11" t="s">
+      <c r="B20" s="7"/>
+      <c r="J20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="15" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="9"/>
-      <c r="J25" s="3" t="s">
+      <c r="B25" s="7"/>
+      <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="15" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:11">
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:11">
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:11">
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="10:11">
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="10:11">
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:11">
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" spans="10:11">
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="10:11">
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:11">
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="10:11">
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="18"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="6:11">
-      <c r="F77" s="18"/>
-      <c r="J77" s="3" t="s">
+      <c r="F77" s="13"/>
+      <c r="J77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" s="18"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="10:11">
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="10:11">
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="10:11">
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="10:11">
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="10:11">
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="10:11">
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="3" t="s">
+      <c r="K93" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="C95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="3" t="s">
+      <c r="J95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="K95" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="F98" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="10:11">
-      <c r="J98" s="3" t="s">
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="J100" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11">
+      <c r="J101" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K101" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,18 @@
     <t>long</t>
   </si>
   <si>
+    <t>GameItemBean</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>int#ref=ItemConfigCategory</t>
+  </si>
+  <si>
+    <t>ItemAmount</t>
+  </si>
+  <si>
     <t>MinMax</t>
   </si>
   <si>
@@ -174,12 +186,6 @@
   </si>
   <si>
     <t>掉落信息</t>
-  </si>
-  <si>
-    <t>ItemConfig</t>
-  </si>
-  <si>
-    <t>ItemAmount</t>
   </si>
   <si>
     <t>ItemRate</t>
@@ -1537,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1723,226 +1729,152 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="10" t="s">
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="11" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="10" t="s">
+    <row r="20" spans="2:11">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="K20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="10" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="12" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="12" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="7"/>
+      <c r="J27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="7"/>
-      <c r="J20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="12" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="7"/>
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1950,523 +1882,549 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="J29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="7"/>
+      <c r="J33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="C38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="8" t="s">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8" t="s">
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="1" t="s">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="10:11">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="8" t="s">
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:11">
-      <c r="J46" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="8" t="s">
+      <c r="J46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="J51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="10:11">
-      <c r="J49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="10:11">
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11">
-      <c r="J54" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="10:11">
-      <c r="J55" s="1" t="s">
+      <c r="K61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="10:11">
-      <c r="J56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="10:11">
-      <c r="J59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="10:11">
-      <c r="J60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63" spans="10:11">
       <c r="J63" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:6">
       <c r="B74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" s="13" t="s">
+      <c r="K82" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J76" s="1" t="s">
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="6:11">
-      <c r="F77" s="13"/>
-      <c r="J77" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="K84" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11">
+      <c r="F85" s="13"/>
+      <c r="J85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K85" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="10:11">
-      <c r="J80" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="10:11">
-      <c r="J81" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="1" t="s">
+    <row r="88" spans="10:11">
+      <c r="J88" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="10:11">
-      <c r="J84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>25</v>
@@ -2474,90 +2432,107 @@
     </row>
     <row r="89" spans="10:11">
       <c r="J89" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>57</v>
+        <v>122</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="10:11">
       <c r="J92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="10:11">
-      <c r="J93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="1" t="s">
+      <c r="J99" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11">
+      <c r="J100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="101" spans="10:11">
       <c r="J101" s="1" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>25</v>
@@ -2565,19 +2540,69 @@
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="K108" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11">
+      <c r="J109" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K109" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="10740"/>
+    <workbookView windowWidth="26310" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>##var</t>
   </si>
@@ -468,6 +468,36 @@
   </si>
   <si>
     <t>list,int</t>
+  </si>
+  <si>
+    <t>GameItemUseParam</t>
+  </si>
+  <si>
+    <t>GameItemUseCurrency</t>
+  </si>
+  <si>
+    <t>获得货币</t>
+  </si>
+  <si>
+    <t>CurrencyValue</t>
+  </si>
+  <si>
+    <t>GameItemUseTask</t>
+  </si>
+  <si>
+    <t>接取任务</t>
+  </si>
+  <si>
+    <t>TaskConfigId</t>
+  </si>
+  <si>
+    <t>int#ref=TaskConfigCategory</t>
+  </si>
+  <si>
+    <t>GameItemUseBuff</t>
+  </si>
+  <si>
+    <t>获得增益</t>
   </si>
 </sst>
 </file>
@@ -1543,10 +1573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2605,6 +2635,70 @@
         <v>146</v>
       </c>
     </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11">
+      <c r="J118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1573,10 +1573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1587,7 +1587,7 @@
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
@@ -2699,6 +2699,8 @@
         <v>86</v>
       </c>
     </row>
+    <row r="124" ht="14.25"/>
+    <row r="125" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>
